--- a/Documentos/Lista de Materiales.xlsx
+++ b/Documentos/Lista de Materiales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Documentos\Innovation Center La Lucha\Mesas De Trabajo\G-MAS\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD1C94-17C3-4084-928A-3E344AE75A59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAA0453-49C5-4529-8216-784A5A765E59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3001A053-90D5-4D8F-8623-E8A2A9DB2661}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t xml:space="preserve">Articulo </t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Esp8266</t>
+  </si>
+  <si>
+    <t>Cargador de bateria</t>
+  </si>
+  <si>
+    <t>Batteria</t>
+  </si>
+  <si>
+    <t>1500 map</t>
   </si>
 </sst>
 </file>
@@ -450,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0CFD6A-3100-4782-B8FF-E84EEAE868B2}">
-  <dimension ref="C2:H11"/>
+  <dimension ref="C2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="15.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.41796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.15625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.578125" bestFit="1" customWidth="1"/>
@@ -611,6 +620,31 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
